--- a/棚外9因素传感器测试表.xlsx
+++ b/棚外9因素传感器测试表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540"/>
+    <workbookView windowWidth="13845" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>棚外9因素传感器测试表</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>000320191016151602</t>
+  </si>
+  <si>
+    <t>ATM32_LoRa_Sensor_For_RainV1.1 - 测试定时器</t>
   </si>
   <si>
     <t>117872321872</t>
@@ -150,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -188,6 +191,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -195,17 +205,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,29 +279,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,69 +321,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,187 +349,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,8 +546,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +557,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,15 +587,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,17 +632,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1" outlineLevelRow="6"/>
@@ -1288,7 +1291,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
@@ -1308,16 +1311,16 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -1343,22 +1346,22 @@
     </row>
     <row r="7" customHeight="1" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>20</v>
@@ -1367,7 +1370,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>

--- a/棚外9因素传感器测试表.xlsx
+++ b/棚外9因素传感器测试表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>棚外9因素传感器测试表</t>
   </si>
@@ -61,6 +61,9 @@
     <t>复测日期</t>
   </si>
   <si>
+    <t>使用基地</t>
+  </si>
+  <si>
     <t>117872321874</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>ATM32_LoRa_Sensor_For_RainV1.1 - 测试定时器</t>
   </si>
   <si>
+    <t>李海坤花卉农场</t>
+  </si>
+  <si>
     <t>117872321872</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
   </si>
   <si>
     <t>000320191016151603</t>
+  </si>
+  <si>
+    <t>楚雄谷兰花卉基地</t>
   </si>
   <si>
     <t>117872321873</t>
@@ -153,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -190,24 +199,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,6 +224,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -233,79 +244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,9 +259,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,12 +358,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,174 +539,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +556,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,7 +580,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,62 +641,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -648,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,133 +669,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,24 +1134,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="43.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="15.625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="23.875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:14">
@@ -1163,7 +1175,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
+    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1205,187 +1217,202 @@
       </c>
       <c r="N2" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="1" t="s">
+    <row r="5" customHeight="1" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="O5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:11">
-      <c r="A5" s="1" t="s">
+    <row r="7" customHeight="1" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="M7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/棚外9因素传感器测试表.xlsx
+++ b/棚外9因素传感器测试表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13845" windowHeight="12270"/>
+    <workbookView windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>117872321926</t>
   </si>
   <si>
-    <t>0C222910</t>
+    <t>0C371709</t>
   </si>
   <si>
     <t>000320191015170303</t>
@@ -162,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -199,6 +199,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -207,11 +244,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,120 +306,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +556,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,7 +580,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,32 +596,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,12 +617,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -657,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +669,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1" outlineLevelRow="6"/>

--- a/棚外9因素传感器测试表.xlsx
+++ b/棚外9因素传感器测试表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540"/>
+    <workbookView windowWidth="13725" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>棚外9因素传感器测试表</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>正常</t>
+  </si>
+  <si>
+    <t>禄丰刘元胜花卉基地</t>
   </si>
   <si>
     <t>117872321871</t>
@@ -162,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -199,15 +202,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,18 +248,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,100 +324,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +361,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,19 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,25 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,121 +529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +552,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,30 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -617,6 +626,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -625,30 +652,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -657,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +672,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,20 +1139,20 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.75" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="43.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="43.75" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.625" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="15.625" style="1" hidden="1" customWidth="1"/>
@@ -1289,27 +1292,27 @@
         <v>25</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>21</v>
@@ -1327,21 +1330,21 @@
         <v>25</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -1365,27 +1368,27 @@
         <v>25</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -1394,7 +1397,7 @@
         <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>24</v>

--- a/棚外9因素传感器测试表.xlsx
+++ b/棚外9因素传感器测试表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12270"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="85">
   <si>
     <t>棚外9因素传感器测试表</t>
   </si>
@@ -158,6 +158,117 @@
   </si>
   <si>
     <t>单片机焊接异常</t>
+  </si>
+  <si>
+    <t>117872322425</t>
+  </si>
+  <si>
+    <t>0C246101</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>000320200106172801</t>
+  </si>
+  <si>
+    <t>LoRa_DC_SENSOR-V2.0</t>
+  </si>
+  <si>
+    <t>STM32_LORA_WS100_V1.0.0_alpha</t>
+  </si>
+  <si>
+    <t>赵学鑫</t>
+  </si>
+  <si>
+    <t>2020/1/7</t>
+  </si>
+  <si>
+    <t>117872322411</t>
+  </si>
+  <si>
+    <t>0C182A03</t>
+  </si>
+  <si>
+    <t>000320200106172802</t>
+  </si>
+  <si>
+    <t>117872322417</t>
+  </si>
+  <si>
+    <t>0C181D01</t>
+  </si>
+  <si>
+    <t>000320200106172803</t>
+  </si>
+  <si>
+    <t>117872322409</t>
+  </si>
+  <si>
+    <t>000320200106172804</t>
+  </si>
+  <si>
+    <t>117872322421</t>
+  </si>
+  <si>
+    <t>0C112802</t>
+  </si>
+  <si>
+    <t>000320200106172805</t>
+  </si>
+  <si>
+    <t>识别不了串口</t>
+  </si>
+  <si>
+    <t>2020/01/08</t>
+  </si>
+  <si>
+    <t>117872322412</t>
+  </si>
+  <si>
+    <t>0C1F3C10</t>
+  </si>
+  <si>
+    <t>000320200106172806</t>
+  </si>
+  <si>
+    <t>117872322413</t>
+  </si>
+  <si>
+    <t>0C312F04</t>
+  </si>
+  <si>
+    <t>000320200106172807</t>
+  </si>
+  <si>
+    <t>117872322410</t>
+  </si>
+  <si>
+    <t>0C226201</t>
+  </si>
+  <si>
+    <t>000320200106172808</t>
+  </si>
+  <si>
+    <t>117872322414</t>
+  </si>
+  <si>
+    <t>0C1E1D05</t>
+  </si>
+  <si>
+    <t>000320200106172809</t>
+  </si>
+  <si>
+    <t>117872322408</t>
+  </si>
+  <si>
+    <t>0C284305</t>
+  </si>
+  <si>
+    <t>000320200106172810</t>
+  </si>
+  <si>
+    <t>12V降5V芯片损坏</t>
   </si>
 </sst>
 </file>
@@ -166,11 +277,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +313,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -210,6 +328,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -225,16 +387,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,35 +426,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -285,9 +433,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,29 +450,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,13 +463,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -361,19 +479,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,37 +569,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,103 +617,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,6 +670,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -570,17 +718,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,17 +736,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,24 +762,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -660,10 +778,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,137 +790,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,6 +934,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,25 +1258,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="43.75" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="22.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="14" width="15.625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="14" width="15.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="23.875" style="1" customWidth="1"/>
     <col min="16" max="16384" width="15.625" style="1" customWidth="1"/>
   </cols>
@@ -1396,7 +1516,7 @@
       <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="5" t="s">
         <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1416,6 +1536,368 @@
       </c>
       <c r="O7" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1423,6 +1905,7 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>